--- a/data_year/zb/科技/规模以上工业企业专利情况/按行业分规模以上工业企业发明专利申请数.xlsx
+++ b/data_year/zb/科技/规模以上工业企业专利情况/按行业分规模以上工业企业发明专利申请数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1190 +628,1152 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10300</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9267</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4319</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1689</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9417</v>
+      </c>
+      <c r="G2" t="n">
+        <v>560</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6968</v>
+      </c>
+      <c r="I2" t="n">
+        <v>365</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>303</v>
+      </c>
       <c r="L2" t="n">
-        <v>20456</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>134843</v>
+      </c>
+      <c r="M2" t="n">
+        <v>612</v>
+      </c>
+      <c r="N2" t="n">
+        <v>555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2456</v>
+      </c>
+      <c r="P2" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>541</v>
+      </c>
+      <c r="R2" t="n">
+        <v>849</v>
+      </c>
+      <c r="S2" t="n">
+        <v>111</v>
+      </c>
+      <c r="T2" t="n">
+        <v>381</v>
+      </c>
+      <c r="U2" t="n">
+        <v>505</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2256</v>
+      </c>
+      <c r="X2" t="n">
+        <v>16667</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>214</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>632</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>698</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1854</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>345</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>40980</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8637</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>619</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2575</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2715</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1512</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2911</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13711</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2398</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12268</v>
+      </c>
+      <c r="G3" t="n">
+        <v>801</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9050</v>
+      </c>
+      <c r="I3" t="n">
+        <v>604</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>387</v>
+      </c>
       <c r="L3" t="n">
-        <v>59254</v>
+        <v>176167</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>3250</v>
+      </c>
+      <c r="P3" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>526</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>81</v>
+      </c>
+      <c r="T3" t="n">
+        <v>550</v>
+      </c>
+      <c r="U3" t="n">
+        <v>716</v>
+      </c>
+      <c r="V3" t="n">
+        <v>34</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4440</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24697</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>796</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>629</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1998</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>46623</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11691</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>963</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4578</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3798</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1809</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>4644</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>273</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17528</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3090</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14883</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10475</v>
+      </c>
+      <c r="I4" t="n">
+        <v>882</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>593</v>
+      </c>
       <c r="L4" t="n">
-        <v>92450</v>
+        <v>205146</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>3464</v>
+      </c>
+      <c r="P4" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>687</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>102</v>
+      </c>
+      <c r="T4" t="n">
+        <v>965</v>
+      </c>
+      <c r="U4" t="n">
+        <v>708</v>
+      </c>
+      <c r="V4" t="n">
+        <v>22</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6742</v>
+      </c>
+      <c r="X4" t="n">
+        <v>25283</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>814</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>888</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2220</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>50516</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14292</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1122</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5152</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>4932</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>179</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2147</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>5767</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9267</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4319</v>
-      </c>
+        <v>17889</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1689</v>
+        <v>3632</v>
       </c>
       <c r="F5" t="n">
-        <v>9417</v>
+        <v>16940</v>
       </c>
       <c r="G5" t="n">
-        <v>560</v>
+        <v>937</v>
       </c>
       <c r="H5" t="n">
-        <v>6968</v>
+        <v>12620</v>
       </c>
       <c r="I5" t="n">
+        <v>852</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>800</v>
+      </c>
+      <c r="L5" t="n">
+        <v>239925</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>3814</v>
+      </c>
+      <c r="P5" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>660</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>125</v>
+      </c>
+      <c r="T5" t="n">
+        <v>919</v>
+      </c>
+      <c r="U5" t="n">
+        <v>597</v>
+      </c>
+      <c r="V5" t="n">
+        <v>45</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8771</v>
+      </c>
+      <c r="X5" t="n">
+        <v>31336</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
+        <v>1051</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>864</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2697</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>58088</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15723</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1478</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5791</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5659</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>226</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2752</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>6337</v>
+      </c>
+      <c r="AM5" t="n">
         <v>365</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2055</v>
-      </c>
-      <c r="K5" t="n">
-        <v>303</v>
-      </c>
-      <c r="L5" t="n">
-        <v>134843</v>
-      </c>
-      <c r="M5" t="n">
-        <v>612</v>
-      </c>
-      <c r="N5" t="n">
-        <v>555</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2456</v>
-      </c>
-      <c r="P5" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>541</v>
-      </c>
-      <c r="R5" t="n">
-        <v>849</v>
-      </c>
-      <c r="S5" t="n">
-        <v>111</v>
-      </c>
-      <c r="T5" t="n">
-        <v>381</v>
-      </c>
-      <c r="U5" t="n">
-        <v>505</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2256</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16667</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>214</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>632</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>698</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1854</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>345</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>40980</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8637</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>619</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2575</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2715</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1512</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2911</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13711</v>
+        <v>18196</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2398</v>
+        <v>4072</v>
       </c>
       <c r="F6" t="n">
-        <v>12268</v>
+        <v>16300</v>
       </c>
       <c r="G6" t="n">
-        <v>801</v>
+        <v>875</v>
       </c>
       <c r="H6" t="n">
-        <v>9050</v>
+        <v>10019</v>
       </c>
       <c r="I6" t="n">
-        <v>604</v>
+        <v>989</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>387</v>
+        <v>1225</v>
       </c>
       <c r="L6" t="n">
-        <v>176167</v>
+        <v>245688</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>3250</v>
+        <v>3962</v>
       </c>
       <c r="P6" t="n">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Q6" t="n">
-        <v>526</v>
+        <v>789</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="T6" t="n">
-        <v>550</v>
+        <v>1188</v>
       </c>
       <c r="U6" t="n">
-        <v>716</v>
+        <v>630</v>
       </c>
       <c r="V6" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="W6" t="n">
-        <v>4440</v>
+        <v>9442</v>
       </c>
       <c r="X6" t="n">
-        <v>24697</v>
+        <v>30914</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>796</v>
+        <v>974</v>
       </c>
       <c r="AA6" t="n">
-        <v>629</v>
+        <v>1149</v>
       </c>
       <c r="AB6" t="n">
-        <v>1998</v>
+        <v>3619</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>46623</v>
+        <v>60533</v>
       </c>
       <c r="AE6" t="n">
-        <v>11691</v>
+        <v>16744</v>
       </c>
       <c r="AF6" t="n">
-        <v>963</v>
+        <v>1403</v>
       </c>
       <c r="AG6" t="n">
-        <v>4578</v>
+        <v>6819</v>
       </c>
       <c r="AH6" t="n">
-        <v>3798</v>
+        <v>5200</v>
       </c>
       <c r="AI6" t="n">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1809</v>
+        <v>2677</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>4644</v>
+        <v>6090</v>
       </c>
       <c r="AM6" t="n">
-        <v>273</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17528</v>
+        <v>20975</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>3090</v>
+        <v>4552</v>
       </c>
       <c r="F7" t="n">
-        <v>14883</v>
+        <v>19193</v>
       </c>
       <c r="G7" t="n">
-        <v>1090</v>
+        <v>861</v>
       </c>
       <c r="H7" t="n">
-        <v>10475</v>
+        <v>10483</v>
       </c>
       <c r="I7" t="n">
-        <v>882</v>
+        <v>1096</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>593</v>
+        <v>1618</v>
       </c>
       <c r="L7" t="n">
-        <v>205146</v>
+        <v>286987</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>3464</v>
+        <v>4322</v>
       </c>
       <c r="P7" t="n">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="Q7" t="n">
-        <v>687</v>
+        <v>992</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="T7" t="n">
-        <v>965</v>
+        <v>1395</v>
       </c>
       <c r="U7" t="n">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="V7" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="W7" t="n">
-        <v>6742</v>
+        <v>9320</v>
       </c>
       <c r="X7" t="n">
-        <v>25283</v>
+        <v>41383</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>814</v>
+        <v>940</v>
       </c>
       <c r="AA7" t="n">
-        <v>888</v>
+        <v>1136</v>
       </c>
       <c r="AB7" t="n">
-        <v>2220</v>
+        <v>3804</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>50516</v>
+        <v>70883</v>
       </c>
       <c r="AE7" t="n">
-        <v>14292</v>
+        <v>19847</v>
       </c>
       <c r="AF7" t="n">
-        <v>1122</v>
+        <v>1665</v>
       </c>
       <c r="AG7" t="n">
-        <v>5152</v>
+        <v>7868</v>
       </c>
       <c r="AH7" t="n">
-        <v>4932</v>
+        <v>6332</v>
       </c>
       <c r="AI7" t="n">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2147</v>
+        <v>3075</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>5767</v>
+        <v>5791</v>
       </c>
       <c r="AM7" t="n">
-        <v>255</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17889</v>
+        <v>24089</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>3632</v>
+        <v>4378</v>
       </c>
       <c r="F8" t="n">
-        <v>16940</v>
+        <v>19968</v>
       </c>
       <c r="G8" t="n">
-        <v>937</v>
+        <v>759</v>
       </c>
       <c r="H8" t="n">
-        <v>12620</v>
+        <v>10886</v>
       </c>
       <c r="I8" t="n">
-        <v>852</v>
+        <v>1249</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>800</v>
+        <v>1386</v>
       </c>
       <c r="L8" t="n">
-        <v>239925</v>
+        <v>320626</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>3814</v>
+        <v>4798</v>
       </c>
       <c r="P8" t="n">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="n">
-        <v>660</v>
+        <v>1026</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="T8" t="n">
-        <v>919</v>
+        <v>1455</v>
       </c>
       <c r="U8" t="n">
-        <v>597</v>
+        <v>821</v>
       </c>
       <c r="V8" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="W8" t="n">
-        <v>8771</v>
+        <v>9576</v>
       </c>
       <c r="X8" t="n">
-        <v>31336</v>
+        <v>49526</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>1051</v>
+        <v>1198</v>
       </c>
       <c r="AA8" t="n">
-        <v>864</v>
+        <v>1332</v>
       </c>
       <c r="AB8" t="n">
-        <v>2697</v>
+        <v>3705</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>58088</v>
+        <v>83246</v>
       </c>
       <c r="AE8" t="n">
-        <v>15723</v>
+        <v>20065</v>
       </c>
       <c r="AF8" t="n">
-        <v>1478</v>
+        <v>1487</v>
       </c>
       <c r="AG8" t="n">
-        <v>5791</v>
+        <v>8619</v>
       </c>
       <c r="AH8" t="n">
-        <v>5659</v>
+        <v>8126</v>
       </c>
       <c r="AI8" t="n">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2752</v>
+        <v>3781</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>6337</v>
+        <v>6371</v>
       </c>
       <c r="AM8" t="n">
-        <v>365</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18196</v>
+        <v>28610</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>4072</v>
+        <v>4497</v>
       </c>
       <c r="F9" t="n">
-        <v>16300</v>
+        <v>20910</v>
       </c>
       <c r="G9" t="n">
-        <v>875</v>
+        <v>1149</v>
       </c>
       <c r="H9" t="n">
-        <v>10019</v>
+        <v>11494</v>
       </c>
       <c r="I9" t="n">
-        <v>989</v>
+        <v>1906</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>1225</v>
+        <v>1644</v>
       </c>
       <c r="L9" t="n">
-        <v>245688</v>
+        <v>371569</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>3962</v>
+        <v>4881</v>
       </c>
       <c r="P9" t="n">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="Q9" t="n">
-        <v>789</v>
+        <v>1338</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="T9" t="n">
-        <v>1188</v>
+        <v>1991</v>
       </c>
       <c r="U9" t="n">
-        <v>630</v>
+        <v>1006</v>
       </c>
       <c r="V9" t="n">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="W9" t="n">
-        <v>9442</v>
+        <v>11742</v>
       </c>
       <c r="X9" t="n">
-        <v>30914</v>
+        <v>54776</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>974</v>
+        <v>1263</v>
       </c>
       <c r="AA9" t="n">
-        <v>1149</v>
+        <v>1760</v>
       </c>
       <c r="AB9" t="n">
-        <v>3619</v>
+        <v>4881</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>60533</v>
+        <v>100216</v>
       </c>
       <c r="AE9" t="n">
-        <v>16744</v>
+        <v>24789</v>
       </c>
       <c r="AF9" t="n">
-        <v>1403</v>
+        <v>1922</v>
       </c>
       <c r="AG9" t="n">
-        <v>6819</v>
+        <v>11177</v>
       </c>
       <c r="AH9" t="n">
-        <v>5200</v>
+        <v>10105</v>
       </c>
       <c r="AI9" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2677</v>
+        <v>4071</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>6090</v>
+        <v>5883</v>
       </c>
       <c r="AM9" t="n">
-        <v>411</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20975</v>
+        <v>31043</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>4552</v>
+        <v>3710</v>
       </c>
       <c r="F10" t="n">
-        <v>19193</v>
+        <v>19338</v>
       </c>
       <c r="G10" t="n">
-        <v>861</v>
+        <v>1095</v>
       </c>
       <c r="H10" t="n">
-        <v>10483</v>
+        <v>11883</v>
       </c>
       <c r="I10" t="n">
-        <v>1096</v>
+        <v>1780</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1618</v>
+        <v>1738</v>
       </c>
       <c r="L10" t="n">
-        <v>286987</v>
+        <v>398802</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>4322</v>
+        <v>5239</v>
       </c>
       <c r="P10" t="n">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="Q10" t="n">
-        <v>992</v>
+        <v>1144</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>121</v>
+        <v>375</v>
       </c>
       <c r="T10" t="n">
-        <v>1395</v>
+        <v>1887</v>
       </c>
       <c r="U10" t="n">
-        <v>680</v>
+        <v>926</v>
       </c>
       <c r="V10" t="n">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="W10" t="n">
-        <v>9320</v>
+        <v>13313</v>
       </c>
       <c r="X10" t="n">
-        <v>41383</v>
+        <v>51867</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>940</v>
+        <v>1187</v>
       </c>
       <c r="AA10" t="n">
-        <v>1136</v>
+        <v>1884</v>
       </c>
       <c r="AB10" t="n">
-        <v>3804</v>
+        <v>4480</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>70883</v>
+        <v>120512</v>
       </c>
       <c r="AE10" t="n">
-        <v>19847</v>
+        <v>28030</v>
       </c>
       <c r="AF10" t="n">
-        <v>1665</v>
+        <v>1880</v>
       </c>
       <c r="AG10" t="n">
-        <v>7868</v>
+        <v>11308</v>
       </c>
       <c r="AH10" t="n">
-        <v>6332</v>
+        <v>10147</v>
       </c>
       <c r="AI10" t="n">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3075</v>
+        <v>3647</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>5791</v>
+        <v>6912</v>
       </c>
       <c r="AM10" t="n">
-        <v>379</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24089</v>
+        <v>35702</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>4378</v>
+        <v>4051</v>
       </c>
       <c r="F11" t="n">
-        <v>19968</v>
+        <v>21695</v>
       </c>
       <c r="G11" t="n">
-        <v>759</v>
+        <v>1089</v>
       </c>
       <c r="H11" t="n">
-        <v>10886</v>
+        <v>14633</v>
       </c>
       <c r="I11" t="n">
-        <v>1249</v>
+        <v>1951</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>1386</v>
+        <v>1679</v>
       </c>
       <c r="L11" t="n">
-        <v>320626</v>
+        <v>446069</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>4798</v>
+        <v>5923</v>
       </c>
       <c r="P11" t="n">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="Q11" t="n">
-        <v>1026</v>
+        <v>1165</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>155</v>
+        <v>455</v>
       </c>
       <c r="T11" t="n">
-        <v>1455</v>
+        <v>2400</v>
       </c>
       <c r="U11" t="n">
-        <v>821</v>
+        <v>1128</v>
       </c>
       <c r="V11" t="n">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="W11" t="n">
-        <v>9576</v>
+        <v>18555</v>
       </c>
       <c r="X11" t="n">
-        <v>49526</v>
+        <v>59507</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>1198</v>
+        <v>1552</v>
       </c>
       <c r="AA11" t="n">
-        <v>1332</v>
+        <v>2251</v>
       </c>
       <c r="AB11" t="n">
-        <v>3705</v>
+        <v>4532</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>83246</v>
+        <v>122293</v>
       </c>
       <c r="AE11" t="n">
-        <v>20065</v>
+        <v>31151</v>
       </c>
       <c r="AF11" t="n">
-        <v>1487</v>
+        <v>2137</v>
       </c>
       <c r="AG11" t="n">
-        <v>8619</v>
+        <v>13190</v>
       </c>
       <c r="AH11" t="n">
-        <v>8126</v>
+        <v>12512</v>
       </c>
       <c r="AI11" t="n">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3781</v>
+        <v>4529</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>6371</v>
+        <v>7476</v>
       </c>
       <c r="AM11" t="n">
-        <v>229</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28610</v>
+        <v>39820</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>4497</v>
+        <v>4209</v>
       </c>
       <c r="F12" t="n">
-        <v>20910</v>
+        <v>22550</v>
       </c>
       <c r="G12" t="n">
-        <v>1149</v>
+        <v>1244</v>
       </c>
       <c r="H12" t="n">
-        <v>11494</v>
+        <v>15391</v>
       </c>
       <c r="I12" t="n">
-        <v>1906</v>
+        <v>2029</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>1644</v>
+        <v>1995</v>
       </c>
       <c r="L12" t="n">
-        <v>371569</v>
+        <v>494589</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>4881</v>
+        <v>6529</v>
       </c>
       <c r="P12" t="n">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="Q12" t="n">
-        <v>1338</v>
+        <v>1223</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>251</v>
+        <v>676</v>
       </c>
       <c r="T12" t="n">
-        <v>1991</v>
+        <v>2556</v>
       </c>
       <c r="U12" t="n">
-        <v>1006</v>
+        <v>1545</v>
       </c>
       <c r="V12" t="n">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="W12" t="n">
-        <v>11742</v>
+        <v>24940</v>
       </c>
       <c r="X12" t="n">
-        <v>54776</v>
+        <v>63870</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>1263</v>
+        <v>1593</v>
       </c>
       <c r="AA12" t="n">
-        <v>1760</v>
+        <v>2695</v>
       </c>
       <c r="AB12" t="n">
-        <v>4881</v>
+        <v>4427</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>100216</v>
+        <v>138888</v>
       </c>
       <c r="AE12" t="n">
-        <v>24789</v>
+        <v>32858</v>
       </c>
       <c r="AF12" t="n">
-        <v>1922</v>
+        <v>2327</v>
       </c>
       <c r="AG12" t="n">
-        <v>11177</v>
+        <v>14286</v>
       </c>
       <c r="AH12" t="n">
-        <v>10105</v>
+        <v>14077</v>
       </c>
       <c r="AI12" t="n">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4071</v>
+        <v>4582</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>5883</v>
+        <v>8451</v>
       </c>
       <c r="AM12" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>31043</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>3710</v>
-      </c>
-      <c r="F13" t="n">
-        <v>19338</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1095</v>
-      </c>
-      <c r="H13" t="n">
-        <v>11883</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1780</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1738</v>
-      </c>
-      <c r="L13" t="n">
-        <v>398802</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>5239</v>
-      </c>
-      <c r="P13" t="n">
-        <v>288</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1144</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>375</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1887</v>
-      </c>
-      <c r="U13" t="n">
-        <v>926</v>
-      </c>
-      <c r="V13" t="n">
-        <v>231</v>
-      </c>
-      <c r="W13" t="n">
-        <v>13313</v>
-      </c>
-      <c r="X13" t="n">
-        <v>51867</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>1187</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1884</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4480</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>120512</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>28030</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1880</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11308</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10147</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>181</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>3647</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>6912</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>35702</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>4051</v>
-      </c>
-      <c r="F14" t="n">
-        <v>21695</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1089</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14633</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1951</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1679</v>
-      </c>
-      <c r="L14" t="n">
-        <v>446069</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>5923</v>
-      </c>
-      <c r="P14" t="n">
-        <v>332</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1165</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>455</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2400</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1128</v>
-      </c>
-      <c r="V14" t="n">
-        <v>226</v>
-      </c>
-      <c r="W14" t="n">
-        <v>18555</v>
-      </c>
-      <c r="X14" t="n">
-        <v>59507</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1552</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2251</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>4532</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>122293</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>31151</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2137</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13190</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12512</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>229</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>4529</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>7476</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>489</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
